--- a/ckan-cli/sample_data/data-catalogue.xlsx
+++ b/ckan-cli/sample_data/data-catalogue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\weca_tdh_ckan\ckan-cli\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AC5D9F-3870-4062-9608-C1D82C73E959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52AEC66-F98B-4C8D-BABE-759F84FE4D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1758,31 +1758,31 @@
     <t>buses; demographic; network_statistics</t>
   </si>
   <si>
-    <t>CSV; XML</t>
-  </si>
-  <si>
-    <t>CSV; Various</t>
-  </si>
-  <si>
-    <t>CSV; KML; Shapefile; GeoJSON</t>
-  </si>
-  <si>
-    <t>CSV; JSON</t>
-  </si>
-  <si>
-    <t>CSV; Shapefile; SQLite Geodatabase; GeoPackage; GeoJSON; Excel</t>
-  </si>
-  <si>
-    <t>CSV; JSON; KML; Shapefile</t>
-  </si>
-  <si>
-    <t>ESRI Shapefile; GML; GeoPackage; Vector Tiles</t>
-  </si>
-  <si>
-    <t>CSV; GeoPackage</t>
-  </si>
-  <si>
-    <t>Vector Tiles; GeoPackage; GML 3.2; Esri Shape file</t>
+    <t>CSV, XML</t>
+  </si>
+  <si>
+    <t>CSV, Various</t>
+  </si>
+  <si>
+    <t>CSV, KML, Shapefile, GeoJSON</t>
+  </si>
+  <si>
+    <t>CSV, JSON</t>
+  </si>
+  <si>
+    <t>Vector Tiles, GeoPackage, GML 3.2, Esri Shape file</t>
+  </si>
+  <si>
+    <t>CSV, JSON, KML, Shapefile</t>
+  </si>
+  <si>
+    <t>CSV, Shapefile, SQLite Geodatabase, GeoPackage, GeoJSON, Excel</t>
+  </si>
+  <si>
+    <t>CSV, GeoPackage</t>
+  </si>
+  <si>
+    <t>ESRI Shapefile, GML, GeoPackage, Vector Tiles</t>
   </si>
 </sst>
 </file>
@@ -2808,8 +2808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5379,7 +5379,7 @@
         <v>74</v>
       </c>
       <c r="I48" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="J48" t="s">
         <v>174</v>
@@ -5794,7 +5794,7 @@
         <v>74</v>
       </c>
       <c r="I56" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="J56" t="s">
         <v>555</v>
@@ -6037,7 +6037,7 @@
         <v>74</v>
       </c>
       <c r="I62" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J62" t="s">
         <v>174</v>
@@ -6119,7 +6119,7 @@
         <v>74</v>
       </c>
       <c r="I64" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J64" t="s">
         <v>174</v>
@@ -6160,7 +6160,7 @@
         <v>74</v>
       </c>
       <c r="I65" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J65" t="s">
         <v>174</v>
@@ -7094,26 +7094,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Approved_x002d_Final xmlns="953e16ed-e05c-4628-aa4e-ef16a3582100">false</Approved_x002d_Final>
-    <Workstream xmlns="953e16ed-e05c-4628-aa4e-ef16a3582100">WS5</Workstream>
-    <ReviewDate xmlns="953e16ed-e05c-4628-aa4e-ef16a3582100" xsi:nil="true"/>
-    <Owner xmlns="953e16ed-e05c-4628-aa4e-ef16a3582100">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <TaxCatchAll xmlns="ac91f264-88c1-461f-9169-dc26ebdff0e5" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="953e16ed-e05c-4628-aa4e-ef16a3582100">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_Flow_SignoffStatus xmlns="953e16ed-e05c-4628-aa4e-ef16a3582100" xsi:nil="true"/>
-    <Reviewed xmlns="953e16ed-e05c-4628-aa4e-ef16a3582100">false</Reviewed>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7403,27 +7389,32 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Approved_x002d_Final xmlns="953e16ed-e05c-4628-aa4e-ef16a3582100">false</Approved_x002d_Final>
+    <Workstream xmlns="953e16ed-e05c-4628-aa4e-ef16a3582100">WS5</Workstream>
+    <ReviewDate xmlns="953e16ed-e05c-4628-aa4e-ef16a3582100" xsi:nil="true"/>
+    <Owner xmlns="953e16ed-e05c-4628-aa4e-ef16a3582100">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <TaxCatchAll xmlns="ac91f264-88c1-461f-9169-dc26ebdff0e5" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="953e16ed-e05c-4628-aa4e-ef16a3582100">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_Flow_SignoffStatus xmlns="953e16ed-e05c-4628-aa4e-ef16a3582100" xsi:nil="true"/>
+    <Reviewed xmlns="953e16ed-e05c-4628-aa4e-ef16a3582100">false</Reviewed>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E027B0F2-6F11-4377-B0F4-3957E9E57751}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4CD2132-8DA6-4199-A454-533BC72B3E51}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="ac91f264-88c1-461f-9169-dc26ebdff0e5"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="953e16ed-e05c-4628-aa4e-ef16a3582100"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7448,9 +7439,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4CD2132-8DA6-4199-A454-533BC72B3E51}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E027B0F2-6F11-4377-B0F4-3957E9E57751}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="ac91f264-88c1-461f-9169-dc26ebdff0e5"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="953e16ed-e05c-4628-aa4e-ef16a3582100"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
